--- a/notebooks/Random Forest/predictions_ele.xlsx
+++ b/notebooks/Random Forest/predictions_ele.xlsx
@@ -484,7 +484,7 @@
         <v>68.25</v>
       </c>
       <c r="D3" t="n">
-        <v>68.08643038600289</v>
+        <v>68.08643038600285</v>
       </c>
     </row>
     <row r="4">
@@ -532,7 +532,7 @@
         <v>73.7</v>
       </c>
       <c r="D6" t="n">
-        <v>72.96664805555551</v>
+        <v>72.96664805555554</v>
       </c>
     </row>
     <row r="7">
@@ -564,7 +564,7 @@
         <v>71.62</v>
       </c>
       <c r="D8" t="n">
-        <v>70.56354864538241</v>
+        <v>70.56354864538238</v>
       </c>
     </row>
     <row r="9">
@@ -580,7 +580,7 @@
         <v>73.69</v>
       </c>
       <c r="D9" t="n">
-        <v>72.99912950396819</v>
+        <v>72.99912950396822</v>
       </c>
     </row>
     <row r="10">
@@ -596,7 +596,7 @@
         <v>71.7</v>
       </c>
       <c r="D10" t="n">
-        <v>70.60835704184704</v>
+        <v>70.60835704184707</v>
       </c>
     </row>
     <row r="11">
@@ -612,7 +612,7 @@
         <v>72.91</v>
       </c>
       <c r="D11" t="n">
-        <v>72.13483005673248</v>
+        <v>72.13483005673247</v>
       </c>
     </row>
     <row r="12">
@@ -628,7 +628,7 @@
         <v>68.3</v>
       </c>
       <c r="D12" t="n">
-        <v>68.50094651695527</v>
+        <v>68.50094651695525</v>
       </c>
     </row>
     <row r="13">
@@ -644,7 +644,7 @@
         <v>73.55</v>
       </c>
       <c r="D13" t="n">
-        <v>72.70783295634918</v>
+        <v>72.70783295634919</v>
       </c>
     </row>
     <row r="14">
@@ -660,7 +660,7 @@
         <v>71.18000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>70.2815210714286</v>
+        <v>70.28152107142859</v>
       </c>
     </row>
     <row r="15">
@@ -676,7 +676,7 @@
         <v>69.81999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>69.78108084887639</v>
+        <v>69.7810808488764</v>
       </c>
     </row>
     <row r="16">
@@ -692,7 +692,7 @@
         <v>77.14</v>
       </c>
       <c r="D16" t="n">
-        <v>76.97517753968252</v>
+        <v>76.97517753968253</v>
       </c>
     </row>
     <row r="17">
@@ -708,7 +708,7 @@
         <v>73.70999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>73.0084117460317</v>
+        <v>73.00841174603173</v>
       </c>
     </row>
     <row r="18">
@@ -724,7 +724,7 @@
         <v>73.08</v>
       </c>
       <c r="D18" t="n">
-        <v>72.36604748015867</v>
+        <v>72.3660474801587</v>
       </c>
     </row>
     <row r="19">
@@ -756,7 +756,7 @@
         <v>76.25</v>
       </c>
       <c r="D20" t="n">
-        <v>76.24578879731385</v>
+        <v>76.24578879731381</v>
       </c>
     </row>
     <row r="21">
@@ -788,7 +788,7 @@
         <v>71.98999999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>70.91499133297265</v>
+        <v>70.91499133297263</v>
       </c>
     </row>
     <row r="23">
@@ -820,7 +820,7 @@
         <v>73.70999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>73.00384263888884</v>
+        <v>73.00384263888887</v>
       </c>
     </row>
     <row r="25">
@@ -852,7 +852,7 @@
         <v>69.79000000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>69.57516104653681</v>
+        <v>69.57516104653682</v>
       </c>
     </row>
     <row r="27">
@@ -868,7 +868,7 @@
         <v>72.45</v>
       </c>
       <c r="D27" t="n">
-        <v>71.86359432539683</v>
+        <v>71.86359432539685</v>
       </c>
     </row>
     <row r="28">
@@ -884,7 +884,7 @@
         <v>74.88</v>
       </c>
       <c r="D28" t="n">
-        <v>74.76698467809962</v>
+        <v>74.7669846780996</v>
       </c>
     </row>
     <row r="29">
@@ -900,7 +900,7 @@
         <v>72.44</v>
       </c>
       <c r="D29" t="n">
-        <v>71.87154396825396</v>
+        <v>71.87154396825399</v>
       </c>
     </row>
     <row r="30">
@@ -916,7 +916,7 @@
         <v>69.3</v>
       </c>
       <c r="D30" t="n">
-        <v>68.8091260678211</v>
+        <v>68.80912606782108</v>
       </c>
     </row>
     <row r="31">
@@ -948,7 +948,7 @@
         <v>70.44</v>
       </c>
       <c r="D32" t="n">
-        <v>69.96380410256407</v>
+        <v>69.96380410256408</v>
       </c>
     </row>
     <row r="33">
@@ -964,7 +964,7 @@
         <v>70.67</v>
       </c>
       <c r="D33" t="n">
-        <v>69.95911630494504</v>
+        <v>69.95911630494503</v>
       </c>
     </row>
     <row r="34">
@@ -996,7 +996,7 @@
         <v>70.43000000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>69.93313459859581</v>
+        <v>69.93313459859583</v>
       </c>
     </row>
     <row r="36">
@@ -1028,7 +1028,7 @@
         <v>71.83</v>
       </c>
       <c r="D37" t="n">
-        <v>70.87067657106783</v>
+        <v>70.87067657106785</v>
       </c>
     </row>
     <row r="38">
@@ -1044,7 +1044,7 @@
         <v>71.12</v>
       </c>
       <c r="D38" t="n">
-        <v>70.33327114452798</v>
+        <v>70.33327114452797</v>
       </c>
     </row>
     <row r="39">
@@ -1060,7 +1060,7 @@
         <v>71.65000000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>70.53366755411258</v>
+        <v>70.53366755411257</v>
       </c>
     </row>
     <row r="40">
@@ -1076,7 +1076,7 @@
         <v>72.63</v>
       </c>
       <c r="D40" t="n">
-        <v>71.99397360224397</v>
+        <v>71.993973602244</v>
       </c>
     </row>
     <row r="41">
@@ -1092,7 +1092,7 @@
         <v>70.94</v>
       </c>
       <c r="D41" t="n">
-        <v>70.18138142230579</v>
+        <v>70.18138142230578</v>
       </c>
     </row>
     <row r="42">
@@ -1108,7 +1108,7 @@
         <v>70.06</v>
       </c>
       <c r="D42" t="n">
-        <v>69.90624534181096</v>
+        <v>69.90624534181097</v>
       </c>
     </row>
     <row r="43">
@@ -1124,7 +1124,7 @@
         <v>70</v>
       </c>
       <c r="D43" t="n">
-        <v>69.83554622255784</v>
+        <v>69.83554622255782</v>
       </c>
     </row>
     <row r="44">
@@ -1156,7 +1156,7 @@
         <v>69.39</v>
       </c>
       <c r="D45" t="n">
-        <v>68.99333507575761</v>
+        <v>68.9933350757576</v>
       </c>
     </row>
     <row r="46">
@@ -1188,7 +1188,7 @@
         <v>69.54000000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>69.29835877831106</v>
+        <v>69.29835877831107</v>
       </c>
     </row>
     <row r="48">
@@ -1220,7 +1220,7 @@
         <v>79.2</v>
       </c>
       <c r="D49" t="n">
-        <v>78.47247692460319</v>
+        <v>78.47247692460317</v>
       </c>
     </row>
     <row r="50">
@@ -1236,7 +1236,7 @@
         <v>74.53</v>
       </c>
       <c r="D50" t="n">
-        <v>74.39055444444439</v>
+        <v>74.39055444444442</v>
       </c>
     </row>
     <row r="51">
@@ -1284,7 +1284,7 @@
         <v>72.76000000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>72.01289339120501</v>
+        <v>72.01289339120503</v>
       </c>
     </row>
     <row r="54">
@@ -1300,7 +1300,7 @@
         <v>72.04000000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>70.95979224567104</v>
+        <v>70.95979224567105</v>
       </c>
     </row>
     <row r="55">
@@ -1316,7 +1316,7 @@
         <v>73.78</v>
       </c>
       <c r="D55" t="n">
-        <v>73.29899968253964</v>
+        <v>73.29899968253967</v>
       </c>
     </row>
     <row r="56">
@@ -1348,7 +1348,7 @@
         <v>76.16</v>
       </c>
       <c r="D57" t="n">
-        <v>76.05781855921856</v>
+        <v>76.05781855921855</v>
       </c>
     </row>
     <row r="58">
@@ -1412,7 +1412,7 @@
         <v>73.48</v>
       </c>
       <c r="D61" t="n">
-        <v>72.67428055555551</v>
+        <v>72.67428055555553</v>
       </c>
     </row>
     <row r="62">
@@ -1428,7 +1428,7 @@
         <v>73.19</v>
       </c>
       <c r="D62" t="n">
-        <v>72.59319849206346</v>
+        <v>72.59319849206345</v>
       </c>
     </row>
     <row r="63">
@@ -1444,7 +1444,7 @@
         <v>72.53</v>
       </c>
       <c r="D63" t="n">
-        <v>71.96652597057012</v>
+        <v>71.96652597057013</v>
       </c>
     </row>
     <row r="64">
@@ -1460,7 +1460,7 @@
         <v>73.27</v>
       </c>
       <c r="D64" t="n">
-        <v>72.68535815476189</v>
+        <v>72.68535815476187</v>
       </c>
     </row>
     <row r="65">
@@ -1492,7 +1492,7 @@
         <v>71.84</v>
       </c>
       <c r="D66" t="n">
-        <v>70.85037538059166</v>
+        <v>70.85037538059164</v>
       </c>
     </row>
     <row r="67">
@@ -1508,7 +1508,7 @@
         <v>71.47</v>
       </c>
       <c r="D67" t="n">
-        <v>70.52399041125545</v>
+        <v>70.52399041125544</v>
       </c>
     </row>
     <row r="68">
@@ -1524,7 +1524,7 @@
         <v>74.86</v>
       </c>
       <c r="D68" t="n">
-        <v>74.85829465825837</v>
+        <v>74.85829465825836</v>
       </c>
     </row>
     <row r="69">
@@ -1540,7 +1540,7 @@
         <v>72.87</v>
       </c>
       <c r="D69" t="n">
-        <v>72.02003355173892</v>
+        <v>72.02003355173895</v>
       </c>
     </row>
     <row r="70">
@@ -1556,7 +1556,7 @@
         <v>70.61</v>
       </c>
       <c r="D70" t="n">
-        <v>69.98605899614276</v>
+        <v>69.98605899614273</v>
       </c>
     </row>
     <row r="71">
@@ -1588,7 +1588,7 @@
         <v>72.15000000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>71.35189353535357</v>
+        <v>71.35189353535355</v>
       </c>
     </row>
     <row r="73">
@@ -1604,7 +1604,7 @@
         <v>75.44</v>
       </c>
       <c r="D73" t="n">
-        <v>75.51926762112876</v>
+        <v>75.51926762112878</v>
       </c>
     </row>
     <row r="74">
@@ -1636,7 +1636,7 @@
         <v>72.04000000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>70.93667387265516</v>
+        <v>70.93667387265515</v>
       </c>
     </row>
     <row r="76">
@@ -1668,7 +1668,7 @@
         <v>76.31999999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>76.32901453144083</v>
+        <v>76.32901453144078</v>
       </c>
     </row>
     <row r="78">
@@ -1700,7 +1700,7 @@
         <v>76.26000000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>76.20309568223446</v>
+        <v>76.20309568223445</v>
       </c>
     </row>
     <row r="80">
@@ -1716,7 +1716,7 @@
         <v>73.06999999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>72.31398700396821</v>
+        <v>72.31398700396822</v>
       </c>
     </row>
     <row r="81">
@@ -1732,7 +1732,7 @@
         <v>66.56</v>
       </c>
       <c r="D81" t="n">
-        <v>65.75725075937949</v>
+        <v>65.7572507593795</v>
       </c>
     </row>
     <row r="82">
@@ -1748,7 +1748,7 @@
         <v>75.3</v>
       </c>
       <c r="D82" t="n">
-        <v>74.82667265873008</v>
+        <v>74.82667265873006</v>
       </c>
     </row>
     <row r="83">
@@ -1780,7 +1780,7 @@
         <v>79.38</v>
       </c>
       <c r="D84" t="n">
-        <v>78.2284050396825</v>
+        <v>78.22840503968251</v>
       </c>
     </row>
     <row r="85">
@@ -1796,7 +1796,7 @@
         <v>76.55</v>
       </c>
       <c r="D85" t="n">
-        <v>76.49568935078815</v>
+        <v>76.49568935078811</v>
       </c>
     </row>
     <row r="86">
@@ -1812,7 +1812,7 @@
         <v>76.11</v>
       </c>
       <c r="D86" t="n">
-        <v>76.02851451159954</v>
+        <v>76.02851451159951</v>
       </c>
     </row>
   </sheetData>
